--- a/paper_SI_discussions/SI-building-paper.xlsx
+++ b/paper_SI_discussions/SI-building-paper.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23535" windowHeight="9885" tabRatio="931" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11310" tabRatio="931" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="2.1.3_Material_intensity" sheetId="13" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="2.3_John_material_intensity" sheetId="6" r:id="rId5"/>
     <sheet name="2.3_John_material_composition" sheetId="10" r:id="rId6"/>
     <sheet name="2.3_John_heating_ventilation" sheetId="11" r:id="rId7"/>
-    <sheet name="3.1_Viola_Calculated_U" sheetId="15" r:id="rId8"/>
+    <sheet name="3.1_Calculated_U_Energy" sheetId="15" r:id="rId8"/>
     <sheet name="3.4_ecoinvent_KBOB_mapping" sheetId="16" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -2160,9 +2160,6 @@
     <t>Final U Values (used in the model)</t>
   </si>
   <si>
-    <t>u_wh (Internal wall)</t>
-  </si>
-  <si>
     <t>Building info</t>
   </si>
   <si>
@@ -2175,17 +2172,21 @@
     <t>Final Energy demand  (Given or Calculated)  [MJ/m2]</t>
   </si>
   <si>
-    <t>Air exchange rate (Buffat model)</t>
+    <t>Air exchange rate (1/h) (Buffat model)</t>
+  </si>
+  <si>
+    <t>TO BE UPDATED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2318,6 +2319,13 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2358,12 +2366,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -2587,21 +2595,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -2630,21 +2623,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -2985,7 +2963,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -3228,58 +3206,49 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3291,88 +3260,89 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="9" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="7" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3387,64 +3357,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3780,443 +3747,443 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="156" t="s">
         <v>671</v>
       </c>
-      <c r="B1" s="160" t="s">
+      <c r="B1" s="157" t="s">
         <v>672</v>
       </c>
-      <c r="C1" s="160" t="s">
+      <c r="C1" s="157" t="s">
         <v>673</v>
       </c>
-      <c r="D1" s="160" t="s">
+      <c r="D1" s="157" t="s">
         <v>674</v>
       </c>
-      <c r="E1" s="160" t="s">
+      <c r="E1" s="157" t="s">
         <v>675</v>
       </c>
-      <c r="F1" s="160" t="s">
+      <c r="F1" s="157" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="154" t="s">
         <v>679</v>
       </c>
-      <c r="B2" s="158">
+      <c r="B2" s="155">
         <v>0.69</v>
       </c>
-      <c r="C2" s="158">
+      <c r="C2" s="155">
         <v>0.97</v>
       </c>
-      <c r="D2" s="158">
+      <c r="D2" s="155">
         <v>0.84</v>
       </c>
-      <c r="E2" s="158">
+      <c r="E2" s="155">
         <v>1.42</v>
       </c>
-      <c r="F2" s="158">
+      <c r="F2" s="155">
         <v>1.54</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="151" t="s">
         <v>680</v>
       </c>
-      <c r="B3" s="155">
+      <c r="B3" s="152">
         <v>2.0699999999999998</v>
       </c>
-      <c r="C3" s="155">
+      <c r="C3" s="152">
         <v>2.9</v>
       </c>
-      <c r="D3" s="155">
+      <c r="D3" s="152">
         <v>2.52</v>
       </c>
-      <c r="E3" s="155">
+      <c r="E3" s="152">
         <v>4.25</v>
       </c>
-      <c r="F3" s="155">
+      <c r="F3" s="152">
         <v>4.63</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="154" t="s">
+      <c r="A4" s="151" t="s">
         <v>683</v>
       </c>
-      <c r="B4" s="156">
+      <c r="B4" s="153">
         <v>0.09</v>
       </c>
-      <c r="C4" s="156">
+      <c r="C4" s="153">
         <v>0.05</v>
       </c>
-      <c r="D4" s="156">
+      <c r="D4" s="153">
         <v>0.03</v>
       </c>
-      <c r="E4" s="156">
+      <c r="E4" s="153">
         <v>0.05</v>
       </c>
-      <c r="F4" s="156">
+      <c r="F4" s="153">
         <v>0.09</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="151" t="s">
         <v>684</v>
       </c>
-      <c r="B5" s="156">
+      <c r="B5" s="153">
         <v>0.6</v>
       </c>
-      <c r="C5" s="156">
+      <c r="C5" s="153">
         <v>0.3</v>
       </c>
-      <c r="D5" s="156">
+      <c r="D5" s="153">
         <v>0.19</v>
       </c>
-      <c r="E5" s="156">
+      <c r="E5" s="153">
         <v>0.32</v>
       </c>
-      <c r="F5" s="156">
+      <c r="F5" s="153">
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="154" t="s">
+      <c r="A6" s="151" t="s">
         <v>687</v>
       </c>
-      <c r="B6" s="155">
+      <c r="B6" s="152">
         <v>5.09</v>
       </c>
-      <c r="C6" s="155">
+      <c r="C6" s="152">
         <v>3.39</v>
       </c>
-      <c r="D6" s="155">
+      <c r="D6" s="152">
         <v>1.52</v>
       </c>
-      <c r="E6" s="155">
+      <c r="E6" s="152">
         <v>1.91</v>
       </c>
-      <c r="F6" s="155">
+      <c r="F6" s="152">
         <v>3.18</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="154" t="s">
+      <c r="A7" s="151" t="s">
         <v>688</v>
       </c>
-      <c r="B7" s="155">
+      <c r="B7" s="152">
         <v>6.43</v>
       </c>
-      <c r="C7" s="155">
+      <c r="C7" s="152">
         <v>4.29</v>
       </c>
-      <c r="D7" s="155">
+      <c r="D7" s="152">
         <v>1.92</v>
       </c>
-      <c r="E7" s="155">
+      <c r="E7" s="152">
         <v>2.42</v>
       </c>
-      <c r="F7" s="155">
+      <c r="F7" s="152">
         <v>4.0199999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="154" t="s">
+      <c r="A8" s="151" t="s">
         <v>691</v>
       </c>
-      <c r="B8" s="156">
+      <c r="B8" s="153">
         <v>0.68</v>
       </c>
-      <c r="C8" s="156">
+      <c r="C8" s="153">
         <v>3.21</v>
       </c>
-      <c r="D8" s="156">
+      <c r="D8" s="153">
         <v>5.49</v>
       </c>
-      <c r="E8" s="156">
+      <c r="E8" s="153">
         <v>9.7100000000000009</v>
       </c>
-      <c r="F8" s="156">
+      <c r="F8" s="153">
         <v>12.16</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="154" t="s">
+      <c r="A9" s="151" t="s">
         <v>692</v>
       </c>
-      <c r="B9" s="156">
+      <c r="B9" s="153">
         <v>0.93</v>
       </c>
-      <c r="C9" s="156">
+      <c r="C9" s="153">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D9" s="156">
+      <c r="D9" s="153">
         <v>7.53</v>
       </c>
-      <c r="E9" s="156">
+      <c r="E9" s="153">
         <v>13.32</v>
       </c>
-      <c r="F9" s="156">
+      <c r="F9" s="153">
         <v>16.68</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="154" t="s">
+      <c r="A10" s="151" t="s">
         <v>695</v>
       </c>
-      <c r="B10" s="155">
+      <c r="B10" s="152">
         <v>0.01</v>
       </c>
-      <c r="C10" s="155">
+      <c r="C10" s="152">
         <v>0.01</v>
       </c>
-      <c r="D10" s="155">
+      <c r="D10" s="152">
         <v>0.02</v>
       </c>
-      <c r="E10" s="155">
+      <c r="E10" s="152">
         <v>0.03</v>
       </c>
-      <c r="F10" s="155">
+      <c r="F10" s="152">
         <v>0.08</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="154" t="s">
+      <c r="A11" s="151" t="s">
         <v>696</v>
       </c>
-      <c r="B11" s="155">
+      <c r="B11" s="152">
         <v>0.09</v>
       </c>
-      <c r="C11" s="155">
+      <c r="C11" s="152">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D11" s="155">
+      <c r="D11" s="152">
         <v>0.26</v>
       </c>
-      <c r="E11" s="155">
+      <c r="E11" s="152">
         <v>0.5</v>
       </c>
-      <c r="F11" s="155">
+      <c r="F11" s="152">
         <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="159" t="s">
+      <c r="A13" s="156" t="s">
         <v>671</v>
       </c>
-      <c r="B13" s="160" t="s">
+      <c r="B13" s="157" t="s">
         <v>672</v>
       </c>
-      <c r="C13" s="160" t="s">
+      <c r="C13" s="157" t="s">
         <v>673</v>
       </c>
-      <c r="D13" s="160" t="s">
+      <c r="D13" s="157" t="s">
         <v>674</v>
       </c>
-      <c r="E13" s="160" t="s">
+      <c r="E13" s="157" t="s">
         <v>675</v>
       </c>
-      <c r="F13" s="160" t="s">
+      <c r="F13" s="157" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="157" t="s">
+      <c r="A14" s="154" t="s">
         <v>677</v>
       </c>
-      <c r="B14" s="158">
+      <c r="B14" s="155">
         <v>0.19</v>
       </c>
-      <c r="C14" s="158">
+      <c r="C14" s="155">
         <v>0.23</v>
       </c>
-      <c r="D14" s="158">
+      <c r="D14" s="155">
         <v>0.23</v>
       </c>
-      <c r="E14" s="158">
+      <c r="E14" s="155">
         <v>0.36</v>
       </c>
-      <c r="F14" s="158">
+      <c r="F14" s="155">
         <v>0.41</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="154" t="s">
+      <c r="A15" s="151" t="s">
         <v>678</v>
       </c>
-      <c r="B15" s="155">
+      <c r="B15" s="152">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C15" s="155">
+      <c r="C15" s="152">
         <v>0.7</v>
       </c>
-      <c r="D15" s="155">
+      <c r="D15" s="152">
         <v>0.68</v>
       </c>
-      <c r="E15" s="155">
+      <c r="E15" s="152">
         <v>1.07</v>
       </c>
-      <c r="F15" s="155">
+      <c r="F15" s="152">
         <v>1.22</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="151" t="s">
         <v>681</v>
       </c>
-      <c r="B16" s="156">
+      <c r="B16" s="153">
         <v>0.03</v>
       </c>
-      <c r="C16" s="156">
+      <c r="C16" s="153">
         <v>0.01</v>
       </c>
-      <c r="D16" s="156">
+      <c r="D16" s="153">
         <v>0.01</v>
       </c>
-      <c r="E16" s="156">
+      <c r="E16" s="153">
         <v>0.01</v>
       </c>
-      <c r="F16" s="156">
+      <c r="F16" s="153">
         <v>0.02</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="154" t="s">
+      <c r="A17" s="151" t="s">
         <v>682</v>
       </c>
-      <c r="B17" s="156">
+      <c r="B17" s="153">
         <v>0.16</v>
       </c>
-      <c r="C17" s="156">
+      <c r="C17" s="153">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D17" s="156">
+      <c r="D17" s="153">
         <v>0.05</v>
       </c>
-      <c r="E17" s="156">
+      <c r="E17" s="153">
         <v>0.08</v>
       </c>
-      <c r="F17" s="156">
+      <c r="F17" s="153">
         <v>0.15</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="154" t="s">
+      <c r="A18" s="151" t="s">
         <v>685</v>
       </c>
-      <c r="B18" s="155">
+      <c r="B18" s="152">
         <v>1.38</v>
       </c>
-      <c r="C18" s="155">
+      <c r="C18" s="152">
         <v>0.82</v>
       </c>
-      <c r="D18" s="155">
+      <c r="D18" s="152">
         <v>0.41</v>
       </c>
-      <c r="E18" s="155">
+      <c r="E18" s="152">
         <v>0.48</v>
       </c>
-      <c r="F18" s="155">
+      <c r="F18" s="152">
         <v>0.84</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="154" t="s">
+      <c r="A19" s="151" t="s">
         <v>686</v>
       </c>
-      <c r="B19" s="155">
+      <c r="B19" s="152">
         <v>1.74</v>
       </c>
-      <c r="C19" s="155">
+      <c r="C19" s="152">
         <v>1.04</v>
       </c>
-      <c r="D19" s="155">
+      <c r="D19" s="152">
         <v>0.52</v>
       </c>
-      <c r="E19" s="155">
+      <c r="E19" s="152">
         <v>0.61</v>
       </c>
-      <c r="F19" s="155">
+      <c r="F19" s="152">
         <v>1.06</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="154" t="s">
+      <c r="A20" s="151" t="s">
         <v>689</v>
       </c>
-      <c r="B20" s="156">
+      <c r="B20" s="153">
         <v>0.18</v>
       </c>
-      <c r="C20" s="156">
+      <c r="C20" s="153">
         <v>0.78</v>
       </c>
-      <c r="D20" s="156">
+      <c r="D20" s="153">
         <v>1.48</v>
       </c>
-      <c r="E20" s="156">
+      <c r="E20" s="153">
         <v>2.44</v>
       </c>
-      <c r="F20" s="156">
+      <c r="F20" s="153">
         <v>3.21</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="154" t="s">
+      <c r="A21" s="151" t="s">
         <v>690</v>
       </c>
-      <c r="B21" s="156">
+      <c r="B21" s="153">
         <v>0.25</v>
       </c>
-      <c r="C21" s="156">
+      <c r="C21" s="153">
         <v>1.07</v>
       </c>
-      <c r="D21" s="156">
+      <c r="D21" s="153">
         <v>2.04</v>
       </c>
-      <c r="E21" s="156">
+      <c r="E21" s="153">
         <v>3.34</v>
       </c>
-      <c r="F21" s="156">
+      <c r="F21" s="153">
         <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="154" t="s">
+      <c r="A22" s="151" t="s">
         <v>693</v>
       </c>
-      <c r="B22" s="155">
+      <c r="B22" s="152">
         <v>0</v>
       </c>
-      <c r="C22" s="155">
+      <c r="C22" s="152">
         <v>0</v>
       </c>
-      <c r="D22" s="155">
+      <c r="D22" s="152">
         <v>0</v>
       </c>
-      <c r="E22" s="155">
+      <c r="E22" s="152">
         <v>0.01</v>
       </c>
-      <c r="F22" s="155">
+      <c r="F22" s="152">
         <v>0.02</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="154" t="s">
+      <c r="A23" s="151" t="s">
         <v>694</v>
       </c>
-      <c r="B23" s="155">
+      <c r="B23" s="152">
         <v>0.02</v>
       </c>
-      <c r="C23" s="155">
+      <c r="C23" s="152">
         <v>0.03</v>
       </c>
-      <c r="D23" s="155">
+      <c r="D23" s="152">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E23" s="155">
+      <c r="E23" s="152">
         <v>0.13</v>
       </c>
-      <c r="F23" s="155">
+      <c r="F23" s="152">
         <v>0.3</v>
       </c>
     </row>
@@ -6161,7 +6128,7 @@
   <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
@@ -8552,8 +8519,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="193"/>
-      <c r="B1" s="194"/>
+      <c r="A1" s="191"/>
+      <c r="B1" s="192"/>
       <c r="C1" s="99"/>
       <c r="D1" s="99"/>
       <c r="E1" s="99"/>
@@ -8607,8 +8574,8 @@
       <c r="AC1" s="11"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="195"/>
-      <c r="B2" s="196"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="194"/>
       <c r="C2" s="104" t="s">
         <v>549</v>
       </c>
@@ -19411,13 +19378,13 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20189,13 +20156,48 @@
         <v>7.56</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>704</v>
-      </c>
-      <c r="G31">
-        <f>G28/1695</f>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>703</v>
+      </c>
+      <c r="B30" s="178">
+        <f>B28/'2.3_John_building_properties'!B15</f>
+        <v>0.38966822533956802</v>
+      </c>
+      <c r="C30" s="178">
+        <f>C28/'2.3_John_building_properties'!C15</f>
+        <v>1.4416146083613647E-4</v>
+      </c>
+      <c r="D30" s="178">
+        <f>D28/'2.3_John_building_properties'!D15</f>
+        <v>7.8933043004899298E-2</v>
+      </c>
+      <c r="E30" s="178"/>
+      <c r="F30" s="178"/>
+      <c r="G30" s="178">
+        <f>G28/'2.3_John_building_properties'!G15</f>
         <v>0.26548672566371684</v>
+      </c>
+      <c r="H30" s="178">
+        <f>H28/'2.3_John_building_properties'!H15</f>
+        <v>0.27027027027027029</v>
+      </c>
+      <c r="I30" s="178">
+        <f>I28/'2.3_John_building_properties'!I15</f>
+        <v>7.317073170731707E-5</v>
+      </c>
+      <c r="J30" s="178">
+        <f>J28/'2.3_John_building_properties'!J15</f>
+        <v>2.3115541589915846E-4</v>
+      </c>
+      <c r="K30" s="178"/>
+      <c r="L30" s="178">
+        <f>L28/'2.3_John_building_properties'!L15</f>
+        <v>0.57991513437057995</v>
+      </c>
+      <c r="M30" s="178">
+        <f>M28/'2.3_John_building_properties'!M15</f>
+        <v>8.516436722875149E-5</v>
       </c>
     </row>
   </sheetData>
@@ -20208,13 +20210,13 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20232,110 +20234,106 @@
     <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35.140625" customWidth="1"/>
+    <col min="14" max="14" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="201"/>
-      <c r="B1" s="202"/>
-      <c r="C1" s="205" t="s">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="198" t="s">
+        <v>704</v>
+      </c>
+      <c r="B1" s="199"/>
+      <c r="C1" s="202" t="s">
+        <v>699</v>
+      </c>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="204" t="s">
+        <v>702</v>
+      </c>
+      <c r="I1" s="195" t="s">
+        <v>698</v>
+      </c>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="196"/>
+      <c r="M1" s="197"/>
+    </row>
+    <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="200"/>
+      <c r="B2" s="201"/>
+      <c r="C2" s="166" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="163" t="s">
+        <v>610</v>
+      </c>
+      <c r="E2" s="162" t="s">
+        <v>241</v>
+      </c>
+      <c r="F2" s="163" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="164" t="s">
+        <v>244</v>
+      </c>
+      <c r="H2" s="205"/>
+      <c r="I2" s="165" t="s">
         <v>700</v>
       </c>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="207" t="s">
-        <v>703</v>
-      </c>
-      <c r="I1" s="197" t="s">
-        <v>698</v>
-      </c>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="200"/>
-    </row>
-    <row r="2" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="203"/>
-      <c r="B2" s="204"/>
-      <c r="C2" s="170" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="166" t="s">
-        <v>610</v>
-      </c>
-      <c r="E2" s="165" t="s">
-        <v>241</v>
-      </c>
-      <c r="F2" s="166" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="168" t="s">
-        <v>244</v>
-      </c>
-      <c r="H2" s="208"/>
-      <c r="I2" s="169" t="s">
+      <c r="J2" s="163" t="s">
+        <v>611</v>
+      </c>
+      <c r="K2" s="163" t="s">
+        <v>612</v>
+      </c>
+      <c r="L2" s="163" t="s">
+        <v>697</v>
+      </c>
+      <c r="M2" s="172" t="s">
         <v>701</v>
       </c>
-      <c r="J2" s="166" t="s">
-        <v>611</v>
-      </c>
-      <c r="K2" s="166" t="s">
-        <v>612</v>
-      </c>
-      <c r="L2" s="166" t="s">
-        <v>697</v>
-      </c>
-      <c r="M2" s="183" t="s">
-        <v>702</v>
-      </c>
-      <c r="N2" s="167" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="213" t="s">
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="210" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="162" t="s">
+      <c r="B3" s="159" t="s">
         <v>613</v>
       </c>
-      <c r="C3" s="163">
+      <c r="C3" s="160">
         <v>2012</v>
       </c>
-      <c r="D3" s="163" t="s">
+      <c r="D3" s="160" t="s">
         <v>614</v>
       </c>
-      <c r="E3" s="164">
+      <c r="E3" s="161">
         <v>2350</v>
       </c>
-      <c r="F3" s="164">
+      <c r="F3" s="161">
         <v>402.7</v>
       </c>
-      <c r="G3" s="171">
+      <c r="G3" s="167">
         <v>12430</v>
       </c>
-      <c r="H3" s="186">
+      <c r="H3" s="173">
         <v>14.4</v>
       </c>
-      <c r="I3" s="176">
+      <c r="I3" s="170">
         <v>1.37</v>
       </c>
-      <c r="J3" s="176"/>
-      <c r="K3" s="176">
+      <c r="J3" s="170"/>
+      <c r="K3" s="170">
         <v>0.16</v>
       </c>
-      <c r="L3" s="176">
+      <c r="L3" s="170">
         <v>0.21</v>
       </c>
-      <c r="M3" s="161"/>
-      <c r="N3" s="178"/>
-    </row>
-    <row r="4" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="212"/>
+      <c r="M3" s="158"/>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="209"/>
       <c r="B4" s="134" t="s">
         <v>615</v>
       </c>
@@ -20345,33 +20343,32 @@
       <c r="D4" s="134">
         <v>247</v>
       </c>
-      <c r="E4" s="135">
+      <c r="E4" s="179">
         <v>2742.54</v>
       </c>
-      <c r="F4" s="135">
+      <c r="F4" s="179">
         <v>391.13</v>
       </c>
-      <c r="G4" s="184">
+      <c r="G4" s="180">
         <v>11930.05</v>
       </c>
-      <c r="H4" s="187" t="s">
+      <c r="H4" s="181" t="s">
         <v>617</v>
       </c>
-      <c r="I4" s="181">
+      <c r="I4" s="189">
         <v>0.44572905343246699</v>
       </c>
-      <c r="J4" s="181"/>
-      <c r="K4" s="181">
+      <c r="J4" s="189"/>
+      <c r="K4" s="189">
         <v>2.1109553533556698E-2</v>
       </c>
-      <c r="L4" s="181">
+      <c r="L4" s="189">
         <v>6.8886374101505485E-2</v>
       </c>
-      <c r="M4" s="179"/>
-      <c r="N4" s="179"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="209" t="s">
+      <c r="M4" s="190"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="206" t="s">
         <v>164</v>
       </c>
       <c r="B5" s="131" t="s">
@@ -20383,37 +20380,36 @@
       <c r="D5" s="131" t="s">
         <v>532</v>
       </c>
-      <c r="E5" s="136">
+      <c r="E5" s="135">
         <v>190.2</v>
       </c>
-      <c r="F5" s="136">
+      <c r="F5" s="135">
         <v>606</v>
       </c>
-      <c r="G5" s="173">
+      <c r="G5" s="168">
         <v>350.4</v>
       </c>
-      <c r="H5" s="188">
+      <c r="H5" s="174">
         <v>24</v>
       </c>
-      <c r="I5" s="176">
+      <c r="I5" s="170">
         <v>0.19700000000000001</v>
       </c>
-      <c r="J5" s="176">
+      <c r="J5" s="170">
         <v>0.105</v>
       </c>
-      <c r="K5" s="176">
+      <c r="K5" s="170">
         <v>0.127</v>
       </c>
-      <c r="L5" s="176">
+      <c r="L5" s="170">
         <v>0.121</v>
       </c>
-      <c r="M5" s="176">
+      <c r="M5" s="170">
         <v>0.84</v>
       </c>
-      <c r="N5" s="180"/>
-    </row>
-    <row r="6" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="210"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="207"/>
       <c r="B6" s="134" t="s">
         <v>615</v>
       </c>
@@ -20423,37 +20419,34 @@
       <c r="D6" s="134">
         <v>1372</v>
       </c>
-      <c r="E6" s="137">
+      <c r="E6" s="182">
         <v>198.05</v>
       </c>
-      <c r="F6" s="137">
+      <c r="F6" s="182">
         <v>569.08000000000004</v>
       </c>
-      <c r="G6" s="185">
+      <c r="G6" s="183">
         <v>372</v>
       </c>
-      <c r="H6" s="189" t="s">
+      <c r="H6" s="184" t="s">
         <v>618</v>
       </c>
-      <c r="I6" s="181">
+      <c r="I6" s="189">
         <v>0.19700000000000001</v>
       </c>
-      <c r="J6" s="181">
+      <c r="J6" s="189">
         <v>0.105</v>
       </c>
-      <c r="K6" s="181">
+      <c r="K6" s="189">
         <v>9.2313978494623652E-2</v>
       </c>
-      <c r="L6" s="181">
+      <c r="L6" s="189">
         <v>6.0074688796680493E-2</v>
       </c>
-      <c r="M6" s="179"/>
-      <c r="N6" s="181">
-        <v>0.48139568375575065</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="211" t="s">
+      <c r="M6" s="190"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="208" t="s">
         <v>151</v>
       </c>
       <c r="B7" s="131" t="s">
@@ -20471,31 +20464,30 @@
       <c r="F7" s="133">
         <v>593.33000000000004</v>
       </c>
-      <c r="G7" s="175">
+      <c r="G7" s="169">
         <v>374</v>
       </c>
-      <c r="H7" s="188">
+      <c r="H7" s="174">
         <v>3.3</v>
       </c>
-      <c r="I7" s="176">
+      <c r="I7" s="170">
         <v>0.1</v>
       </c>
-      <c r="J7" s="176">
+      <c r="J7" s="170">
         <v>0.11</v>
       </c>
-      <c r="K7" s="176">
+      <c r="K7" s="170">
         <v>0.19600000000000001</v>
       </c>
-      <c r="L7" s="176">
+      <c r="L7" s="170">
         <v>0.1</v>
       </c>
-      <c r="M7" s="176">
+      <c r="M7" s="170">
         <v>0.48</v>
       </c>
-      <c r="N7" s="180"/>
-    </row>
-    <row r="8" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="212"/>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="209"/>
       <c r="B8" s="134" t="s">
         <v>615</v>
       </c>
@@ -20505,37 +20497,34 @@
       <c r="D8" s="134">
         <v>942</v>
       </c>
-      <c r="E8" s="135">
+      <c r="E8" s="179">
         <v>165.20400000000001</v>
       </c>
-      <c r="F8" s="135">
+      <c r="F8" s="179">
         <v>560.25599999999997</v>
       </c>
-      <c r="G8" s="184">
+      <c r="G8" s="180">
         <v>330.40800000000002</v>
       </c>
-      <c r="H8" s="187" t="s">
+      <c r="H8" s="181" t="s">
         <v>620</v>
       </c>
-      <c r="I8" s="181">
+      <c r="I8" s="189">
         <v>5.8847736625514402E-2</v>
       </c>
-      <c r="J8" s="181">
+      <c r="J8" s="189">
         <v>0.10687015002586653</v>
       </c>
-      <c r="K8" s="181">
+      <c r="K8" s="189">
         <v>0.10808041887099852</v>
       </c>
-      <c r="L8" s="181">
+      <c r="L8" s="189">
         <v>4.2331288343558281E-2</v>
       </c>
-      <c r="M8" s="179"/>
-      <c r="N8" s="179">
-        <v>0.94548166519043397</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="209" t="s">
+      <c r="M8" s="190"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="206" t="s">
         <v>409</v>
       </c>
       <c r="B9" s="131" t="s">
@@ -20547,37 +20536,36 @@
       <c r="D9" s="132" t="s">
         <v>614</v>
       </c>
-      <c r="E9" s="136">
+      <c r="E9" s="135">
         <v>240</v>
       </c>
-      <c r="F9" s="136">
+      <c r="F9" s="135">
         <v>411.49</v>
       </c>
-      <c r="G9" s="173">
+      <c r="G9" s="168">
         <v>622.20000000000005</v>
       </c>
-      <c r="H9" s="190" t="s">
+      <c r="H9" s="175" t="s">
         <v>621</v>
       </c>
-      <c r="I9" s="176">
+      <c r="I9" s="170">
         <v>1.85</v>
       </c>
-      <c r="J9" s="176">
+      <c r="J9" s="170">
         <v>0.13</v>
       </c>
-      <c r="K9" s="176">
+      <c r="K9" s="170">
         <v>0.22</v>
       </c>
-      <c r="L9" s="176">
+      <c r="L9" s="170">
         <v>0.21</v>
       </c>
-      <c r="M9" s="176">
+      <c r="M9" s="170">
         <v>1.3</v>
       </c>
-      <c r="N9" s="180"/>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="210"/>
+    </row>
+    <row r="10" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="207"/>
       <c r="B10" s="134" t="s">
         <v>615</v>
       </c>
@@ -20587,37 +20575,34 @@
       <c r="D10" s="134">
         <v>250</v>
       </c>
-      <c r="E10" s="137">
+      <c r="E10" s="182">
         <v>241.64</v>
       </c>
-      <c r="F10" s="137">
+      <c r="F10" s="182">
         <v>419.8</v>
       </c>
-      <c r="G10" s="185">
+      <c r="G10" s="183">
         <v>664.51</v>
       </c>
-      <c r="H10" s="189" t="s">
+      <c r="H10" s="184" t="s">
         <v>623</v>
       </c>
-      <c r="I10" s="181">
+      <c r="I10" s="189">
         <v>1.8486055779999999</v>
       </c>
-      <c r="J10" s="181">
+      <c r="J10" s="189">
         <v>5.4888888888888883E-2</v>
       </c>
-      <c r="K10" s="181">
+      <c r="K10" s="189">
         <v>0.13248017641019533</v>
       </c>
-      <c r="L10" s="181">
+      <c r="L10" s="189">
         <v>0.21</v>
       </c>
-      <c r="M10" s="179"/>
-      <c r="N10" s="181">
-        <v>1.2225913620657858</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="211" t="s">
+      <c r="M10" s="190"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="208" t="s">
         <v>410</v>
       </c>
       <c r="B11" s="131" t="s">
@@ -20635,31 +20620,30 @@
       <c r="F11" s="133">
         <v>457.75</v>
       </c>
-      <c r="G11" s="175">
+      <c r="G11" s="169">
         <v>20400</v>
       </c>
-      <c r="H11" s="191">
+      <c r="H11" s="176">
         <v>18.36</v>
       </c>
-      <c r="I11" s="177">
+      <c r="I11" s="171">
         <v>1.66</v>
       </c>
-      <c r="J11" s="177">
+      <c r="J11" s="171">
         <v>0.09</v>
       </c>
-      <c r="K11" s="177">
+      <c r="K11" s="171">
         <v>0.15</v>
       </c>
-      <c r="L11" s="177">
+      <c r="L11" s="171">
         <v>0.11</v>
       </c>
-      <c r="M11" s="177">
+      <c r="M11" s="171">
         <v>0.75</v>
       </c>
-      <c r="N11" s="182"/>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="212"/>
+    </row>
+    <row r="12" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="209"/>
       <c r="B12" s="134" t="s">
         <v>615</v>
       </c>
@@ -20669,37 +20653,34 @@
       <c r="D12" s="134">
         <v>261</v>
       </c>
-      <c r="E12" s="135">
+      <c r="E12" s="179">
         <v>2591.15</v>
       </c>
-      <c r="F12" s="135">
+      <c r="F12" s="179">
         <v>403.46100000000001</v>
       </c>
-      <c r="G12" s="184">
+      <c r="G12" s="180">
         <v>25911.5</v>
       </c>
-      <c r="H12" s="187" t="s">
+      <c r="H12" s="181" t="s">
         <v>624</v>
       </c>
-      <c r="I12" s="181">
+      <c r="I12" s="189">
         <v>0.6484431773241105</v>
       </c>
-      <c r="J12" s="181">
+      <c r="J12" s="189">
         <v>4.666452137563145E-2</v>
       </c>
-      <c r="K12" s="181">
+      <c r="K12" s="189">
         <v>4.9891093602341313E-2</v>
       </c>
-      <c r="L12" s="181">
+      <c r="L12" s="189">
         <v>5.9583333333333335E-2</v>
       </c>
-      <c r="M12" s="179"/>
-      <c r="N12" s="179">
-        <v>0.30686907807540842</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="209" t="s">
+      <c r="M12" s="190"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="206" t="s">
         <v>411</v>
       </c>
       <c r="B13" s="131" t="s">
@@ -20711,37 +20692,36 @@
       <c r="D13" s="132" t="s">
         <v>619</v>
       </c>
-      <c r="E13" s="136">
+      <c r="E13" s="135">
         <v>777</v>
       </c>
-      <c r="F13" s="136">
+      <c r="F13" s="135">
         <v>500</v>
       </c>
-      <c r="G13" s="173">
+      <c r="G13" s="168">
         <v>408</v>
       </c>
-      <c r="H13" s="188">
+      <c r="H13" s="174">
         <v>3.3</v>
       </c>
-      <c r="I13" s="176">
+      <c r="I13" s="170">
         <v>3.2</v>
       </c>
-      <c r="J13" s="176">
+      <c r="J13" s="170">
         <v>0.1</v>
       </c>
-      <c r="K13" s="176">
+      <c r="K13" s="170">
         <v>0.08</v>
       </c>
-      <c r="L13" s="176">
+      <c r="L13" s="170">
         <v>0.1</v>
       </c>
-      <c r="M13" s="176">
+      <c r="M13" s="170">
         <v>0.5</v>
       </c>
-      <c r="N13" s="180"/>
-    </row>
-    <row r="14" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="210"/>
+    </row>
+    <row r="14" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="207"/>
       <c r="B14" s="134" t="s">
         <v>625</v>
       </c>
@@ -20751,37 +20731,34 @@
       <c r="D14" s="134">
         <v>616</v>
       </c>
-      <c r="E14" s="137">
+      <c r="E14" s="182">
         <v>800.18799999999999</v>
       </c>
-      <c r="F14" s="137">
+      <c r="F14" s="182">
         <v>522.899</v>
       </c>
-      <c r="G14" s="185">
+      <c r="G14" s="183">
         <v>800.18799999999999</v>
       </c>
-      <c r="H14" s="189" t="s">
+      <c r="H14" s="184" t="s">
         <v>626</v>
       </c>
-      <c r="I14" s="181">
+      <c r="I14" s="189">
         <v>3.2</v>
       </c>
-      <c r="J14" s="181">
+      <c r="J14" s="189">
         <v>0.05</v>
       </c>
-      <c r="K14" s="181">
+      <c r="K14" s="189">
         <v>5.3762206186365E-2</v>
       </c>
-      <c r="L14" s="181">
+      <c r="L14" s="189">
         <v>9.696969696969697E-2</v>
       </c>
-      <c r="M14" s="179"/>
-      <c r="N14" s="181">
-        <v>1.3187779323099682</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="211" t="s">
+      <c r="M14" s="190"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="208" t="s">
         <v>412</v>
       </c>
       <c r="B15" s="131" t="s">
@@ -20799,29 +20776,28 @@
       <c r="F15" s="133">
         <v>418.1</v>
       </c>
-      <c r="G15" s="175">
+      <c r="G15" s="169">
         <v>13441</v>
       </c>
-      <c r="H15" s="192">
+      <c r="H15" s="177">
         <v>12.1</v>
       </c>
-      <c r="I15" s="177">
+      <c r="I15" s="171">
         <v>0.32</v>
       </c>
-      <c r="J15" s="177">
+      <c r="J15" s="171">
         <v>0.11</v>
       </c>
-      <c r="K15" s="177">
+      <c r="K15" s="171">
         <v>0.16</v>
       </c>
-      <c r="L15" s="177">
+      <c r="L15" s="171">
         <v>0.21</v>
       </c>
-      <c r="M15" s="177"/>
-      <c r="N15" s="182"/>
-    </row>
-    <row r="16" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="212"/>
+      <c r="M15" s="171"/>
+    </row>
+    <row r="16" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="209"/>
       <c r="B16" s="134" t="s">
         <v>615</v>
       </c>
@@ -20831,37 +20807,34 @@
       <c r="D16" s="134">
         <v>261</v>
       </c>
-      <c r="E16" s="135">
+      <c r="E16" s="179">
         <v>1906.35</v>
       </c>
-      <c r="F16" s="135">
+      <c r="F16" s="179">
         <v>418.15</v>
       </c>
-      <c r="G16" s="184">
+      <c r="G16" s="180">
         <v>13344.45</v>
       </c>
-      <c r="H16" s="187" t="s">
+      <c r="H16" s="181" t="s">
         <v>627</v>
       </c>
-      <c r="I16" s="181">
+      <c r="I16" s="189">
         <v>0.16600433738684073</v>
       </c>
-      <c r="J16" s="181">
+      <c r="J16" s="189">
         <v>0.10939830929885627</v>
       </c>
-      <c r="K16" s="181">
+      <c r="K16" s="189">
         <v>0.11902643344582581</v>
       </c>
-      <c r="L16" s="181">
+      <c r="L16" s="189">
         <v>0.11812500000000001</v>
       </c>
-      <c r="M16" s="179"/>
-      <c r="N16" s="179">
-        <v>1.668934240165687</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="209" t="s">
+      <c r="M16" s="190"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="206" t="s">
         <v>425</v>
       </c>
       <c r="B17" s="131" t="s">
@@ -20873,37 +20846,36 @@
       <c r="D17" s="132" t="s">
         <v>628</v>
       </c>
-      <c r="E17" s="136">
+      <c r="E17" s="135">
         <v>375.3</v>
       </c>
-      <c r="F17" s="136">
+      <c r="F17" s="135">
         <v>498</v>
       </c>
-      <c r="G17" s="173">
+      <c r="G17" s="168">
         <v>1121.9000000000001</v>
       </c>
-      <c r="H17" s="188">
+      <c r="H17" s="174">
         <v>24</v>
       </c>
-      <c r="I17" s="176">
+      <c r="I17" s="170">
         <v>0.1</v>
       </c>
-      <c r="J17" s="176">
+      <c r="J17" s="170">
         <v>0.1</v>
       </c>
-      <c r="K17" s="176">
+      <c r="K17" s="170">
         <v>0.23</v>
       </c>
-      <c r="L17" s="176">
+      <c r="L17" s="170">
         <v>0.1</v>
       </c>
-      <c r="M17" s="176">
+      <c r="M17" s="170">
         <v>0.79499999999999993</v>
       </c>
-      <c r="N17" s="180"/>
-    </row>
-    <row r="18" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="210"/>
+    </row>
+    <row r="18" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="207"/>
       <c r="B18" s="134" t="s">
         <v>615</v>
       </c>
@@ -20913,37 +20885,34 @@
       <c r="D18" s="134">
         <v>1059</v>
       </c>
-      <c r="E18" s="137">
+      <c r="E18" s="182">
         <v>374.98</v>
       </c>
-      <c r="F18" s="137">
+      <c r="F18" s="182">
         <v>492.07900000000001</v>
       </c>
-      <c r="G18" s="185">
+      <c r="G18" s="183">
         <v>1124.72</v>
       </c>
-      <c r="H18" s="189" t="s">
+      <c r="H18" s="184" t="s">
         <v>629</v>
       </c>
-      <c r="I18" s="181">
+      <c r="I18" s="189">
         <v>5.7271551724137934E-2</v>
       </c>
-      <c r="J18" s="181">
+      <c r="J18" s="189">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="K18" s="181">
+      <c r="K18" s="189">
         <v>0.14148163690858417</v>
       </c>
-      <c r="L18" s="181">
+      <c r="L18" s="189">
         <v>3.3666666666666671E-2</v>
       </c>
-      <c r="M18" s="179"/>
-      <c r="N18" s="181">
-        <v>0.46910045849113718</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="211" t="s">
+      <c r="M18" s="190"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="208" t="s">
         <v>464</v>
       </c>
       <c r="B19" s="131" t="s">
@@ -20961,31 +20930,30 @@
       <c r="F19" s="133">
         <v>805</v>
       </c>
-      <c r="G19" s="175">
+      <c r="G19" s="169">
         <v>510.1</v>
       </c>
-      <c r="H19" s="191">
+      <c r="H19" s="176">
         <v>11.2</v>
       </c>
-      <c r="I19" s="177">
+      <c r="I19" s="171">
         <v>0.18</v>
       </c>
-      <c r="J19" s="177">
+      <c r="J19" s="171">
         <v>0.17</v>
       </c>
-      <c r="K19" s="177">
+      <c r="K19" s="171">
         <v>0.18</v>
       </c>
-      <c r="L19" s="177">
+      <c r="L19" s="171">
         <v>0.15</v>
       </c>
-      <c r="M19" s="177">
+      <c r="M19" s="171">
         <v>0.84666666666666668</v>
       </c>
-      <c r="N19" s="182"/>
-    </row>
-    <row r="20" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="212"/>
+    </row>
+    <row r="20" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="209"/>
       <c r="B20" s="134" t="s">
         <v>615</v>
       </c>
@@ -20995,37 +20963,34 @@
       <c r="D20" s="134">
         <v>3203</v>
       </c>
-      <c r="E20" s="135">
+      <c r="E20" s="179">
         <v>186.86699999999999</v>
       </c>
-      <c r="F20" s="135">
+      <c r="F20" s="179">
         <v>778.45399999999995</v>
       </c>
-      <c r="G20" s="184">
+      <c r="G20" s="180">
         <v>448.8</v>
       </c>
-      <c r="H20" s="187" t="s">
+      <c r="H20" s="181" t="s">
         <v>631</v>
       </c>
-      <c r="I20" s="181">
+      <c r="I20" s="189">
         <v>0.18</v>
       </c>
-      <c r="J20" s="181">
+      <c r="J20" s="189">
         <v>0.1</v>
       </c>
-      <c r="K20" s="181">
+      <c r="K20" s="189">
         <v>0.19472937500000001</v>
       </c>
-      <c r="L20" s="181">
+      <c r="L20" s="189">
         <v>0.10999999999999999</v>
       </c>
-      <c r="M20" s="179"/>
-      <c r="N20" s="179">
-        <v>0.14780466598657002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="209" t="s">
+      <c r="M20" s="190"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="206" t="s">
         <v>473</v>
       </c>
       <c r="B21" s="131" t="s">
@@ -21037,37 +21002,36 @@
       <c r="D21" s="132" t="s">
         <v>614</v>
       </c>
-      <c r="E21" s="136">
+      <c r="E21" s="135">
         <v>411</v>
       </c>
-      <c r="F21" s="136">
+      <c r="F21" s="135">
         <v>440</v>
       </c>
-      <c r="G21" s="173">
+      <c r="G21" s="168">
         <v>1120</v>
       </c>
-      <c r="H21" s="188">
+      <c r="H21" s="174">
         <v>27.8</v>
       </c>
-      <c r="I21" s="176">
+      <c r="I21" s="170">
         <v>0.18</v>
       </c>
-      <c r="J21" s="176">
+      <c r="J21" s="170">
         <v>0.17</v>
       </c>
-      <c r="K21" s="176">
+      <c r="K21" s="170">
         <v>0.18</v>
       </c>
-      <c r="L21" s="176">
+      <c r="L21" s="170">
         <v>0.15</v>
       </c>
-      <c r="M21" s="176">
+      <c r="M21" s="170">
         <v>1.2000000000000002</v>
       </c>
-      <c r="N21" s="180"/>
-    </row>
-    <row r="22" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="210"/>
+    </row>
+    <row r="22" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="207"/>
       <c r="B22" s="134" t="s">
         <v>615</v>
       </c>
@@ -21077,37 +21041,34 @@
       <c r="D22" s="134">
         <v>261</v>
       </c>
-      <c r="E22" s="137">
+      <c r="E22" s="182">
         <v>411.16500000000002</v>
       </c>
-      <c r="F22" s="137">
+      <c r="F22" s="182">
         <v>435.35</v>
       </c>
-      <c r="G22" s="185">
+      <c r="G22" s="183">
         <v>1151.26</v>
       </c>
-      <c r="H22" s="189" t="s">
+      <c r="H22" s="184" t="s">
         <v>632</v>
       </c>
-      <c r="I22" s="181">
+      <c r="I22" s="189">
         <v>0.16385466531011705</v>
       </c>
-      <c r="J22" s="181">
+      <c r="J22" s="189">
         <v>0.11445006713987854</v>
       </c>
-      <c r="K22" s="181">
+      <c r="K22" s="189">
         <v>0.13696709106328259</v>
       </c>
-      <c r="L22" s="181">
+      <c r="L22" s="189">
         <v>5.7766990291262137E-2</v>
       </c>
-      <c r="M22" s="179"/>
-      <c r="N22" s="181">
-        <v>1.2048192770915953</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="211" t="s">
+      <c r="M22" s="190"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="208" t="s">
         <v>479</v>
       </c>
       <c r="B23" s="131" t="s">
@@ -21119,37 +21080,36 @@
       <c r="D23" s="132" t="s">
         <v>619</v>
       </c>
-      <c r="E23" s="136">
+      <c r="E23" s="135">
         <v>665</v>
       </c>
-      <c r="F23" s="136">
+      <c r="F23" s="135">
         <v>565</v>
       </c>
-      <c r="G23" s="173">
+      <c r="G23" s="168">
         <v>2966</v>
       </c>
-      <c r="H23" s="188">
+      <c r="H23" s="174">
         <v>11.9</v>
       </c>
-      <c r="I23" s="176">
+      <c r="I23" s="170">
         <v>0.16</v>
       </c>
-      <c r="J23" s="176">
+      <c r="J23" s="170">
         <v>0.1</v>
       </c>
-      <c r="K23" s="176">
+      <c r="K23" s="170">
         <v>0.51</v>
       </c>
-      <c r="L23" s="176">
+      <c r="L23" s="170">
         <v>0.1</v>
       </c>
-      <c r="M23" s="176">
+      <c r="M23" s="170">
         <v>1.3466666666666667</v>
       </c>
-      <c r="N23" s="180"/>
-    </row>
-    <row r="24" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="212"/>
+    </row>
+    <row r="24" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="209"/>
       <c r="B24" s="134" t="s">
         <v>615</v>
       </c>
@@ -21159,37 +21119,34 @@
       <c r="D24" s="134">
         <v>942</v>
       </c>
-      <c r="E24" s="138">
+      <c r="E24" s="185">
         <v>730.27</v>
       </c>
-      <c r="F24" s="138">
+      <c r="F24" s="185">
         <v>557.91</v>
       </c>
-      <c r="G24" s="172">
+      <c r="G24" s="186">
         <v>2921.06</v>
       </c>
-      <c r="H24" s="187" t="s">
+      <c r="H24" s="181" t="s">
         <v>633</v>
       </c>
-      <c r="I24" s="181">
+      <c r="I24" s="189">
         <v>0.10181818181818182</v>
       </c>
-      <c r="J24" s="181">
+      <c r="J24" s="189">
         <v>6.1538461538461542E-2</v>
       </c>
-      <c r="K24" s="181">
+      <c r="K24" s="189">
         <v>0.2895762544218991</v>
       </c>
-      <c r="L24" s="181">
+      <c r="L24" s="189">
         <v>5.2654028436018956E-2</v>
       </c>
-      <c r="M24" s="179"/>
-      <c r="N24" s="179">
-        <v>1.559006122257711</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="209" t="s">
+      <c r="M24" s="190"/>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="206" t="s">
         <v>493</v>
       </c>
       <c r="B25" s="131" t="s">
@@ -21204,34 +21161,33 @@
       <c r="E25" s="131">
         <v>168.75</v>
       </c>
-      <c r="F25" s="136">
+      <c r="F25" s="135">
         <v>556</v>
       </c>
-      <c r="G25" s="173">
+      <c r="G25" s="168">
         <v>1170</v>
       </c>
-      <c r="H25" s="188">
+      <c r="H25" s="174">
         <v>7.56</v>
       </c>
-      <c r="I25" s="176">
+      <c r="I25" s="170">
         <v>0.1</v>
       </c>
-      <c r="J25" s="176">
+      <c r="J25" s="170">
         <v>0.08</v>
       </c>
-      <c r="K25" s="176">
+      <c r="K25" s="170">
         <v>0.127</v>
       </c>
-      <c r="L25" s="176">
+      <c r="L25" s="170">
         <v>0.11</v>
       </c>
-      <c r="M25" s="176">
+      <c r="M25" s="170">
         <v>0.69999999999999984</v>
       </c>
-      <c r="N25" s="180"/>
-    </row>
-    <row r="26" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="210"/>
+    </row>
+    <row r="26" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="207"/>
       <c r="B26" s="134" t="s">
         <v>615</v>
       </c>
@@ -21241,38 +21197,35 @@
       <c r="D26" s="134">
         <v>1061</v>
       </c>
-      <c r="E26" s="134">
+      <c r="E26" s="187">
         <v>177.57499999999999</v>
       </c>
-      <c r="F26" s="134">
+      <c r="F26" s="187">
         <v>471.36700000000002</v>
       </c>
-      <c r="G26" s="174">
+      <c r="G26" s="188">
         <v>1198.8</v>
       </c>
-      <c r="H26" s="189" t="s">
+      <c r="H26" s="184" t="s">
         <v>634</v>
       </c>
-      <c r="I26" s="181">
+      <c r="I26" s="189">
         <v>0.1</v>
       </c>
-      <c r="J26" s="181">
+      <c r="J26" s="189">
         <v>4.2352941176470586E-2</v>
       </c>
-      <c r="K26" s="181">
+      <c r="K26" s="189">
         <v>5.444924930049673E-2</v>
       </c>
-      <c r="L26" s="181">
+      <c r="L26" s="189">
         <v>4.0857142857142863E-2</v>
       </c>
-      <c r="M26" s="179"/>
-      <c r="N26" s="181">
-        <v>0.27380549275526117</v>
-      </c>
+      <c r="M26" s="190"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="I1:M1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:H2"/>
@@ -21303,7 +21256,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21316,55 +21269,55 @@
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="211" t="s">
         <v>635</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="214" t="s">
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="211" t="s">
         <v>636</v>
       </c>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="216"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="212"/>
+      <c r="I1" s="213"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="136" t="s">
         <v>637</v>
       </c>
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="137" t="s">
         <v>549</v>
       </c>
-      <c r="C2" s="140" t="s">
+      <c r="C2" s="137" t="s">
         <v>638</v>
       </c>
-      <c r="D2" s="141" t="s">
+      <c r="D2" s="138" t="s">
         <v>637</v>
       </c>
-      <c r="E2" s="142" t="s">
+      <c r="E2" s="139" t="s">
         <v>639</v>
       </c>
-      <c r="F2" s="142" t="s">
+      <c r="F2" s="139" t="s">
         <v>549</v>
       </c>
-      <c r="G2" s="142" t="s">
+      <c r="G2" s="139" t="s">
         <v>544</v>
       </c>
-      <c r="H2" s="142" t="s">
+      <c r="H2" s="139" t="s">
         <v>640</v>
       </c>
-      <c r="I2" s="143" t="s">
+      <c r="I2" s="140" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="141" t="s">
         <v>642</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -21373,10 +21326,10 @@
       <c r="C3" s="9">
         <v>0.223</v>
       </c>
-      <c r="D3" s="145" t="s">
+      <c r="D3" s="142" t="s">
         <v>644</v>
       </c>
-      <c r="E3" s="146">
+      <c r="E3" s="143">
         <v>1</v>
       </c>
       <c r="F3" s="113" t="s">
@@ -21388,12 +21341,12 @@
       <c r="H3" s="113" t="s">
         <v>645</v>
       </c>
-      <c r="I3" s="147" t="s">
+      <c r="I3" s="144" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="144" t="s">
+      <c r="A4" s="141" t="s">
         <v>647</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -21402,10 +21355,10 @@
       <c r="C4" s="9">
         <v>0.41699999999999998</v>
       </c>
-      <c r="D4" s="145" t="s">
+      <c r="D4" s="142" t="s">
         <v>648</v>
       </c>
-      <c r="E4" s="146">
+      <c r="E4" s="143">
         <v>1</v>
       </c>
       <c r="F4" s="113" t="s">
@@ -21417,12 +21370,12 @@
       <c r="H4" s="113" t="s">
         <v>645</v>
       </c>
-      <c r="I4" s="147" t="s">
+      <c r="I4" s="144" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="144" t="s">
+      <c r="A5" s="141" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -21431,10 +21384,10 @@
       <c r="C5" s="9">
         <v>7.64</v>
       </c>
-      <c r="D5" s="145" t="s">
+      <c r="D5" s="142" t="s">
         <v>649</v>
       </c>
-      <c r="E5" s="146">
+      <c r="E5" s="143">
         <v>1</v>
       </c>
       <c r="F5" s="113" t="s">
@@ -21446,12 +21399,12 @@
       <c r="H5" s="113" t="s">
         <v>645</v>
       </c>
-      <c r="I5" s="147" t="s">
+      <c r="I5" s="144" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="144" t="s">
+      <c r="A6" s="141" t="s">
         <v>650</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -21460,10 +21413,10 @@
       <c r="C6" s="9">
         <v>14.5</v>
       </c>
-      <c r="D6" s="145" t="s">
+      <c r="D6" s="142" t="s">
         <v>651</v>
       </c>
-      <c r="E6" s="146">
+      <c r="E6" s="143">
         <v>1</v>
       </c>
       <c r="F6" s="113" t="s">
@@ -21475,12 +21428,12 @@
       <c r="H6" s="113" t="s">
         <v>645</v>
       </c>
-      <c r="I6" s="147" t="s">
+      <c r="I6" s="144" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="144" t="s">
+      <c r="A7" s="141" t="s">
         <v>652</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -21489,10 +21442,10 @@
       <c r="C7" s="9">
         <v>1.1299999999999999</v>
       </c>
-      <c r="D7" s="145" t="s">
+      <c r="D7" s="142" t="s">
         <v>653</v>
       </c>
-      <c r="E7" s="146">
+      <c r="E7" s="143">
         <v>1</v>
       </c>
       <c r="F7" s="113" t="s">
@@ -21504,12 +21457,12 @@
       <c r="H7" s="113" t="s">
         <v>645</v>
       </c>
-      <c r="I7" s="147" t="s">
+      <c r="I7" s="144" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="144" t="s">
+      <c r="A8" s="141" t="s">
         <v>654</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -21518,10 +21471,10 @@
       <c r="C8" s="9">
         <v>7.52</v>
       </c>
-      <c r="D8" s="145" t="s">
+      <c r="D8" s="142" t="s">
         <v>655</v>
       </c>
-      <c r="E8" s="146">
+      <c r="E8" s="143">
         <v>1</v>
       </c>
       <c r="F8" s="113" t="s">
@@ -21533,12 +21486,12 @@
       <c r="H8" s="113" t="s">
         <v>645</v>
       </c>
-      <c r="I8" s="147" t="s">
+      <c r="I8" s="144" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="144" t="s">
+      <c r="A9" s="141" t="s">
         <v>656</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -21547,10 +21500,10 @@
       <c r="C9" s="9">
         <v>1.17</v>
       </c>
-      <c r="D9" s="145" t="s">
+      <c r="D9" s="142" t="s">
         <v>657</v>
       </c>
-      <c r="E9" s="146">
+      <c r="E9" s="143">
         <v>1</v>
       </c>
       <c r="F9" s="113" t="s">
@@ -21562,18 +21515,18 @@
       <c r="H9" s="113" t="s">
         <v>645</v>
       </c>
-      <c r="I9" s="147" t="s">
+      <c r="I9" s="144" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="144"/>
+      <c r="A10" s="141"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="145" t="s">
+      <c r="D10" s="142" t="s">
         <v>658</v>
       </c>
-      <c r="E10" s="146">
+      <c r="E10" s="143">
         <v>1</v>
       </c>
       <c r="F10" s="113" t="s">
@@ -21585,7 +21538,7 @@
       <c r="H10" s="113" t="s">
         <v>659</v>
       </c>
-      <c r="I10" s="147" t="s">
+      <c r="I10" s="144" t="s">
         <v>646</v>
       </c>
       <c r="J10">
@@ -21593,7 +21546,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="144" t="s">
+      <c r="A11" s="141" t="s">
         <v>660</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -21602,10 +21555,10 @@
       <c r="C11" s="9">
         <v>0.13800000000000001</v>
       </c>
-      <c r="D11" s="145" t="s">
+      <c r="D11" s="142" t="s">
         <v>661</v>
       </c>
-      <c r="E11" s="146">
+      <c r="E11" s="143">
         <v>1</v>
       </c>
       <c r="F11" s="113" t="s">
@@ -21617,12 +21570,12 @@
       <c r="H11" s="113" t="s">
         <v>645</v>
       </c>
-      <c r="I11" s="147" t="s">
+      <c r="I11" s="144" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="144" t="s">
+      <c r="A12" s="141" t="s">
         <v>662</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -21631,10 +21584,10 @@
       <c r="C12" s="9">
         <v>0.48499999999999999</v>
       </c>
-      <c r="D12" s="145" t="s">
+      <c r="D12" s="142" t="s">
         <v>663</v>
       </c>
-      <c r="E12" s="146">
+      <c r="E12" s="143">
         <v>1</v>
       </c>
       <c r="F12" s="113" t="s">
@@ -21646,18 +21599,18 @@
       <c r="H12" s="113" t="s">
         <v>659</v>
       </c>
-      <c r="I12" s="147" t="s">
+      <c r="I12" s="144" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="144"/>
+      <c r="A13" s="141"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="145" t="s">
+      <c r="D13" s="142" t="s">
         <v>664</v>
       </c>
-      <c r="E13" s="146">
+      <c r="E13" s="143">
         <v>1</v>
       </c>
       <c r="F13" s="113" t="s">
@@ -21669,7 +21622,7 @@
       <c r="H13" s="113" t="s">
         <v>645</v>
       </c>
-      <c r="I13" s="147" t="s">
+      <c r="I13" s="144" t="s">
         <v>646</v>
       </c>
       <c r="J13">
@@ -21677,7 +21630,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="144" t="s">
+      <c r="A14" s="141" t="s">
         <v>665</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -21686,10 +21639,10 @@
       <c r="C14" s="9">
         <v>0.68200000000000005</v>
       </c>
-      <c r="D14" s="145" t="s">
+      <c r="D14" s="142" t="s">
         <v>666</v>
       </c>
-      <c r="E14" s="146">
+      <c r="E14" s="143">
         <v>1</v>
       </c>
       <c r="F14" s="113" t="s">
@@ -21701,12 +21654,12 @@
       <c r="H14" s="113" t="s">
         <v>645</v>
       </c>
-      <c r="I14" s="147" t="s">
+      <c r="I14" s="144" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="144" t="s">
+      <c r="A15" s="141" t="s">
         <v>667</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -21715,10 +21668,10 @@
       <c r="C15" s="9">
         <v>0.25700000000000001</v>
       </c>
-      <c r="D15" s="145" t="s">
+      <c r="D15" s="142" t="s">
         <v>668</v>
       </c>
-      <c r="E15" s="146">
+      <c r="E15" s="143">
         <v>1</v>
       </c>
       <c r="F15" s="113" t="s">
@@ -21730,12 +21683,12 @@
       <c r="H15" s="113" t="s">
         <v>645</v>
       </c>
-      <c r="I15" s="147" t="s">
+      <c r="I15" s="144" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="144" t="s">
+      <c r="A16" s="141" t="s">
         <v>656</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -21744,10 +21697,10 @@
       <c r="C16" s="9">
         <v>1.17</v>
       </c>
-      <c r="D16" s="145" t="s">
+      <c r="D16" s="142" t="s">
         <v>669</v>
       </c>
-      <c r="E16" s="146">
+      <c r="E16" s="143">
         <v>1</v>
       </c>
       <c r="F16" s="113" t="s">
@@ -21759,30 +21712,30 @@
       <c r="H16" s="113" t="s">
         <v>645</v>
       </c>
-      <c r="I16" s="147" t="s">
+      <c r="I16" s="144" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="148"/>
-      <c r="B17" s="149"/>
-      <c r="C17" s="149"/>
-      <c r="D17" s="150" t="s">
+      <c r="A17" s="145"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="147" t="s">
         <v>670</v>
       </c>
-      <c r="E17" s="151">
+      <c r="E17" s="148">
         <v>1</v>
       </c>
-      <c r="F17" s="152" t="s">
+      <c r="F17" s="149" t="s">
         <v>551</v>
       </c>
-      <c r="G17" s="152" t="s">
+      <c r="G17" s="149" t="s">
         <v>545</v>
       </c>
-      <c r="H17" s="152" t="s">
+      <c r="H17" s="149" t="s">
         <v>645</v>
       </c>
-      <c r="I17" s="153" t="s">
+      <c r="I17" s="150" t="s">
         <v>646</v>
       </c>
       <c r="J17">

--- a/paper_SI_discussions/SI-building-paper.xlsx
+++ b/paper_SI_discussions/SI-building-paper.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="9900" tabRatio="931"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11010" tabRatio="931" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="SI GUIDE" sheetId="22" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="700">
   <si>
     <t xml:space="preserve">Ventilation </t>
   </si>
@@ -2113,10 +2113,6 @@
   </si>
   <si>
     <t>0.3
-0.21 (Default)</t>
-  </si>
-  <si>
-    <t>0.121
 0.21 (Default)</t>
   </si>
   <si>
@@ -2895,6 +2891,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2939,9 +2938,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3252,18 +3248,18 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="73.7265625" style="38" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="38"/>
+    <col min="4" max="4" width="73.7109375" style="38" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="150" customFormat="1">
@@ -3277,7 +3273,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29">
+    <row r="2" spans="1:4" ht="30">
       <c r="A2" s="38">
         <v>1</v>
       </c>
@@ -3351,7 +3347,7 @@
         <v>665</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3403,7 +3399,7 @@
       <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="C1" t="s">
@@ -4358,11 +4354,11 @@
       <selection pane="bottomLeft" activeCell="A182" sqref="A182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="77.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6183,10 +6179,10 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.7265625" customWidth="1"/>
-    <col min="2" max="21" width="16.7265625" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="21" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6209,7 +6205,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" s="64" t="s">
         <v>583</v>
       </c>
@@ -6229,7 +6225,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1">
       <c r="A3" s="61" t="s">
         <v>584</v>
       </c>
@@ -6249,7 +6245,7 @@
         <v>4.63</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1">
       <c r="A4" s="61" t="s">
         <v>587</v>
       </c>
@@ -6269,7 +6265,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1">
       <c r="A5" s="61" t="s">
         <v>588</v>
       </c>
@@ -6289,7 +6285,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1">
       <c r="A6" s="61" t="s">
         <v>591</v>
       </c>
@@ -6309,7 +6305,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1">
       <c r="A7" s="61" t="s">
         <v>592</v>
       </c>
@@ -6329,7 +6325,7 @@
         <v>4.0199999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1">
       <c r="A8" s="61" t="s">
         <v>595</v>
       </c>
@@ -6349,7 +6345,7 @@
         <v>12.16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1">
       <c r="A9" s="61" t="s">
         <v>596</v>
       </c>
@@ -6369,7 +6365,7 @@
         <v>16.68</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1">
       <c r="A10" s="61" t="s">
         <v>599</v>
       </c>
@@ -6389,7 +6385,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1">
       <c r="A11" s="61" t="s">
         <v>600</v>
       </c>
@@ -6409,7 +6405,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1"/>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="13" spans="1:6">
       <c r="A13" s="66" t="s">
         <v>575</v>
@@ -6430,7 +6426,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1">
       <c r="A14" s="64" t="s">
         <v>581</v>
       </c>
@@ -6450,7 +6446,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1">
       <c r="A15" s="61" t="s">
         <v>582</v>
       </c>
@@ -6470,7 +6466,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1">
       <c r="A16" s="61" t="s">
         <v>585</v>
       </c>
@@ -6490,7 +6486,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1">
       <c r="A17" s="61" t="s">
         <v>586</v>
       </c>
@@ -6510,7 +6506,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1">
       <c r="A18" s="61" t="s">
         <v>589</v>
       </c>
@@ -6530,7 +6526,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1">
       <c r="A19" s="61" t="s">
         <v>590</v>
       </c>
@@ -6550,7 +6546,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1">
       <c r="A20" s="61" t="s">
         <v>593</v>
       </c>
@@ -6570,7 +6566,7 @@
         <v>3.21</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1">
+    <row r="21" spans="1:6" ht="15.75" thickBot="1">
       <c r="A21" s="61" t="s">
         <v>594</v>
       </c>
@@ -6590,7 +6586,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1">
+    <row r="22" spans="1:6" ht="15.75" thickBot="1">
       <c r="A22" s="61" t="s">
         <v>597</v>
       </c>
@@ -6610,7 +6606,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1">
       <c r="A23" s="61" t="s">
         <v>598</v>
       </c>
@@ -6631,8 +6627,8 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="176" t="s">
-        <v>699</v>
+      <c r="A25" s="161" t="s">
+        <v>698</v>
       </c>
     </row>
   </sheetData>
@@ -6653,12 +6649,12 @@
       <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6791,11 +6787,11 @@
       <selection pane="bottomRight" activeCell="L94" sqref="L94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37" style="18" customWidth="1"/>
-    <col min="2" max="2" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="41" customFormat="1">
@@ -10008,16 +10004,16 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="16" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="16" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.5">
-      <c r="A1" s="161"/>
-      <c r="B1" s="162"/>
+    <row r="1" spans="1:26" ht="15.75">
+      <c r="A1" s="162"/>
+      <c r="B1" s="163"/>
       <c r="C1" s="19" t="s">
         <v>3</v>
       </c>
@@ -10067,9 +10063,9 @@
       </c>
       <c r="Z1" s="11"/>
     </row>
-    <row r="2" spans="1:26" ht="15.5">
-      <c r="A2" s="163"/>
-      <c r="B2" s="164"/>
+    <row r="2" spans="1:26" ht="15.75">
+      <c r="A2" s="164"/>
+      <c r="B2" s="165"/>
       <c r="C2" s="25" t="s">
         <v>1</v>
       </c>
@@ -10864,23 +10860,23 @@
       <selection pane="topRight" activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.453125" style="85" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" style="84" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.54296875" style="85" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.42578125" style="85" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="84" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.5703125" style="85" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="85" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.453125" style="85" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.1796875" style="85" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="13.7265625" style="85" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="85" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" style="85" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="13.7109375" style="85" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" style="85" customWidth="1"/>
-    <col min="15" max="15" width="13.7265625" style="85" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.54296875" style="85" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" style="85" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="85" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="14" style="85" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="13.7265625" style="85" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.54296875" style="85" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="13.7109375" style="85" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.5703125" style="85" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1">
@@ -11055,7 +11051,7 @@
         <v>1073.03</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15" thickBot="1">
+    <row r="3" spans="1:28" ht="15.75" thickBot="1">
       <c r="A3" s="75" t="s">
         <v>487</v>
       </c>
@@ -11087,7 +11083,7 @@
       <c r="AA3" s="76"/>
       <c r="AB3" s="77"/>
     </row>
-    <row r="4" spans="1:28" ht="15" thickTop="1">
+    <row r="4" spans="1:28" ht="15.75" thickTop="1">
       <c r="A4" s="78" t="s">
         <v>89</v>
       </c>
@@ -12205,7 +12201,7 @@
       <c r="V31" s="73"/>
       <c r="W31" s="74"/>
     </row>
-    <row r="32" spans="1:28" ht="15" thickBot="1">
+    <row r="32" spans="1:28" ht="15.75" thickBot="1">
       <c r="A32" s="75" t="s">
         <v>487</v>
       </c>
@@ -12240,7 +12236,7 @@
       <c r="V32" s="73"/>
       <c r="W32" s="73"/>
     </row>
-    <row r="33" spans="1:10" ht="15" thickTop="1">
+    <row r="33" spans="1:10" ht="15.75" thickTop="1">
       <c r="A33" s="90" t="s">
         <v>335</v>
       </c>
@@ -12767,7 +12763,7 @@
       <c r="S61" s="73"/>
       <c r="T61" s="74"/>
     </row>
-    <row r="62" spans="1:20" ht="15" thickBot="1">
+    <row r="62" spans="1:20" ht="15.75" thickBot="1">
       <c r="A62" s="75" t="s">
         <v>487</v>
       </c>
@@ -12799,7 +12795,7 @@
       <c r="S62" s="73"/>
       <c r="T62" s="73"/>
     </row>
-    <row r="63" spans="1:20" ht="15" thickTop="1">
+    <row r="63" spans="1:20" ht="15.75" thickTop="1">
       <c r="A63" s="78" t="s">
         <v>125</v>
       </c>
@@ -13691,7 +13687,7 @@
       <c r="S101" s="73"/>
       <c r="T101" s="74"/>
     </row>
-    <row r="102" spans="1:20" ht="15" thickBot="1">
+    <row r="102" spans="1:20" ht="15.75" thickBot="1">
       <c r="A102" s="75" t="s">
         <v>487</v>
       </c>
@@ -13723,7 +13719,7 @@
       <c r="S102" s="73"/>
       <c r="T102" s="73"/>
     </row>
-    <row r="103" spans="1:20" ht="15" thickTop="1">
+    <row r="103" spans="1:20" ht="15.75" thickTop="1">
       <c r="A103" s="78" t="s">
         <v>334</v>
       </c>
@@ -14362,7 +14358,7 @@
       <c r="S131" s="73"/>
       <c r="T131" s="74"/>
     </row>
-    <row r="132" spans="1:20" ht="15" thickBot="1">
+    <row r="132" spans="1:20" ht="15.75" thickBot="1">
       <c r="A132" s="75" t="s">
         <v>487</v>
       </c>
@@ -14390,7 +14386,7 @@
       <c r="S132" s="73"/>
       <c r="T132" s="73"/>
     </row>
-    <row r="133" spans="1:20" ht="15" thickTop="1">
+    <row r="133" spans="1:20" ht="15.75" thickTop="1">
       <c r="A133" s="78" t="s">
         <v>125</v>
       </c>
@@ -15136,7 +15132,7 @@
       <c r="S159" s="73"/>
       <c r="T159" s="74"/>
     </row>
-    <row r="160" spans="1:20" ht="15" thickBot="1">
+    <row r="160" spans="1:20" ht="15.75" thickBot="1">
       <c r="A160" s="75" t="s">
         <v>487</v>
       </c>
@@ -15166,7 +15162,7 @@
       <c r="S160" s="73"/>
       <c r="T160" s="73"/>
     </row>
-    <row r="161" spans="1:12" ht="15" thickTop="1">
+    <row r="161" spans="1:12" ht="15.75" thickTop="1">
       <c r="A161" s="78" t="s">
         <v>125</v>
       </c>
@@ -15840,7 +15836,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="197" spans="1:12" s="102" customFormat="1" ht="13">
+    <row r="197" spans="1:12" s="102" customFormat="1" ht="12.75">
       <c r="A197" s="71" t="s">
         <v>118</v>
       </c>
@@ -15902,7 +15898,7 @@
       <c r="K198" s="103"/>
       <c r="L198" s="104"/>
     </row>
-    <row r="199" spans="1:12" ht="15" thickTop="1">
+    <row r="199" spans="1:12" ht="15.75" thickTop="1">
       <c r="A199" s="78" t="s">
         <v>96</v>
       </c>
@@ -16406,7 +16402,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="224" spans="1:16" s="102" customFormat="1" ht="13">
+    <row r="224" spans="1:16" s="102" customFormat="1" ht="12.75">
       <c r="A224" s="71" t="s">
         <v>118</v>
       </c>
@@ -16486,7 +16482,7 @@
       <c r="O225" s="103"/>
       <c r="P225" s="104"/>
     </row>
-    <row r="226" spans="1:25" s="42" customFormat="1" ht="15" thickTop="1">
+    <row r="226" spans="1:25" s="42" customFormat="1" ht="15.75" thickTop="1">
       <c r="A226" s="81" t="s">
         <v>98</v>
       </c>
@@ -17332,7 +17328,7 @@
       <c r="X252" s="84"/>
       <c r="Y252" s="84"/>
     </row>
-    <row r="253" spans="1:25" s="42" customFormat="1" ht="15.5">
+    <row r="253" spans="1:25" s="42" customFormat="1" ht="15.75">
       <c r="A253" s="106" t="s">
         <v>110</v>
       </c>
@@ -17364,7 +17360,7 @@
       <c r="X253" s="84"/>
       <c r="Y253" s="84"/>
     </row>
-    <row r="254" spans="1:25" s="42" customFormat="1" ht="15.5">
+    <row r="254" spans="1:25" s="42" customFormat="1" ht="15.75">
       <c r="A254" s="106" t="s">
         <v>432</v>
       </c>
@@ -17396,7 +17392,7 @@
       <c r="X254" s="84"/>
       <c r="Y254" s="84"/>
     </row>
-    <row r="255" spans="1:25" s="42" customFormat="1" ht="15.5">
+    <row r="255" spans="1:25" s="42" customFormat="1" ht="15.75">
       <c r="A255" s="106" t="s">
         <v>430</v>
       </c>
@@ -17428,7 +17424,7 @@
       <c r="X255" s="84"/>
       <c r="Y255" s="84"/>
     </row>
-    <row r="256" spans="1:25" s="42" customFormat="1" ht="15.5">
+    <row r="256" spans="1:25" s="42" customFormat="1" ht="15.75">
       <c r="A256" s="106" t="s">
         <v>431</v>
       </c>
@@ -17462,7 +17458,7 @@
       <c r="X256" s="84"/>
       <c r="Y256" s="84"/>
     </row>
-    <row r="257" spans="1:25" s="42" customFormat="1" ht="15.5">
+    <row r="257" spans="1:25" s="42" customFormat="1" ht="15.75">
       <c r="A257" s="106" t="s">
         <v>335</v>
       </c>
@@ -17496,7 +17492,7 @@
       <c r="X257" s="84"/>
       <c r="Y257" s="84"/>
     </row>
-    <row r="258" spans="1:25" s="42" customFormat="1" ht="15.5">
+    <row r="258" spans="1:25" s="42" customFormat="1" ht="15.75">
       <c r="A258" s="108" t="s">
         <v>336</v>
       </c>
@@ -17552,7 +17548,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="261" spans="1:25" s="102" customFormat="1" ht="13">
+    <row r="261" spans="1:25" s="102" customFormat="1" ht="12.75">
       <c r="A261" s="71" t="s">
         <v>118</v>
       </c>
@@ -17608,7 +17604,7 @@
       <c r="M262" s="100"/>
       <c r="N262" s="100"/>
     </row>
-    <row r="263" spans="1:25" ht="15" thickTop="1">
+    <row r="263" spans="1:25" ht="15.75" thickTop="1">
       <c r="A263" s="78" t="s">
         <v>450</v>
       </c>
@@ -18047,7 +18043,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="292" spans="1:14" s="102" customFormat="1" ht="13">
+    <row r="292" spans="1:14" s="102" customFormat="1" ht="12.75">
       <c r="A292" s="71" t="s">
         <v>118</v>
       </c>
@@ -18115,7 +18111,7 @@
       <c r="M293" s="104"/>
       <c r="N293" s="100"/>
     </row>
-    <row r="294" spans="1:14" ht="15" thickTop="1">
+    <row r="294" spans="1:14" ht="15.75" thickTop="1">
       <c r="A294" s="78" t="s">
         <v>458</v>
       </c>
@@ -18670,7 +18666,7 @@
       <c r="L320" s="88"/>
       <c r="M320" s="89"/>
     </row>
-    <row r="322" spans="1:14" s="92" customFormat="1" ht="19.399999999999999" customHeight="1">
+    <row r="322" spans="1:14" s="92" customFormat="1" ht="19.350000000000001" customHeight="1">
       <c r="A322" s="68" t="s">
         <v>472</v>
       </c>
@@ -18708,7 +18704,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="323" spans="1:14" s="102" customFormat="1" ht="13">
+    <row r="323" spans="1:14" s="102" customFormat="1" ht="12.75">
       <c r="A323" s="71" t="s">
         <v>118</v>
       </c>
@@ -18778,7 +18774,7 @@
       <c r="M324" s="100"/>
       <c r="N324" s="100"/>
     </row>
-    <row r="325" spans="1:14" ht="15" thickTop="1">
+    <row r="325" spans="1:14" ht="15.75" thickTop="1">
       <c r="A325" s="78" t="s">
         <v>467</v>
       </c>
@@ -19273,7 +19269,7 @@
       </c>
       <c r="N347" s="91"/>
     </row>
-    <row r="348" spans="1:25" s="102" customFormat="1" ht="15" thickBot="1">
+    <row r="348" spans="1:25" s="102" customFormat="1" ht="15.75" thickBot="1">
       <c r="A348" s="75" t="s">
         <v>487</v>
       </c>
@@ -19303,7 +19299,7 @@
       </c>
       <c r="N348" s="111"/>
     </row>
-    <row r="349" spans="1:25" s="42" customFormat="1" ht="15" thickTop="1">
+    <row r="349" spans="1:25" s="42" customFormat="1" ht="15.75" thickTop="1">
       <c r="A349" s="81" t="s">
         <v>458</v>
       </c>
@@ -20311,7 +20307,7 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20324,56 +20320,56 @@
   </sheetPr>
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="A11:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="147" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="147" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.453125" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="42" customFormat="1" ht="15.5">
-      <c r="A1" s="167"/>
-      <c r="B1" s="167"/>
-      <c r="C1" s="168" t="s">
+    <row r="1" spans="1:14" s="42" customFormat="1" ht="15.75">
+      <c r="A1" s="168"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="169" t="s">
         <v>618</v>
       </c>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="171" t="s">
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="172" t="s">
         <v>619</v>
       </c>
-      <c r="J1" s="172"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="174" t="s">
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
+      <c r="L1" s="173"/>
+      <c r="M1" s="174"/>
+      <c r="N1" s="175" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="136" customFormat="1" ht="31">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
+    <row r="2" spans="1:14" s="136" customFormat="1" ht="31.5">
+      <c r="A2" s="168"/>
+      <c r="B2" s="168"/>
       <c r="C2" s="132" t="s">
         <v>621</v>
       </c>
@@ -20407,10 +20403,10 @@
       <c r="M2" s="135" t="s">
         <v>628</v>
       </c>
-      <c r="N2" s="175"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.5">
-      <c r="A3" s="165" t="s">
+      <c r="N2" s="176"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75">
+      <c r="A3" s="166" t="s">
         <v>117</v>
       </c>
       <c r="B3" s="137" t="s">
@@ -20443,8 +20439,8 @@
         <v>129.6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="31">
-      <c r="A4" s="166"/>
+    <row r="4" spans="1:14" ht="31.5">
+      <c r="A4" s="167"/>
       <c r="B4" s="141" t="s">
         <v>631</v>
       </c>
@@ -20465,7 +20461,7 @@
       </c>
       <c r="H4" s="145"/>
       <c r="I4" s="155" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J4" s="144">
         <v>0.18</v>
@@ -20474,7 +20470,7 @@
         <v>679</v>
       </c>
       <c r="L4" s="155" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="M4" s="144" t="s">
         <v>666</v>
@@ -20483,8 +20479,8 @@
         <v>667</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.5">
-      <c r="A5" s="165" t="s">
+    <row r="5" spans="1:14" ht="15.75">
+      <c r="A5" s="166" t="s">
         <v>163</v>
       </c>
       <c r="B5" s="137" t="s">
@@ -20525,8 +20521,8 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="31">
-      <c r="A6" s="166"/>
+    <row r="6" spans="1:14" ht="31.5">
+      <c r="A6" s="167"/>
       <c r="B6" s="141" t="s">
         <v>631</v>
       </c>
@@ -20553,10 +20549,10 @@
         <v>0.15</v>
       </c>
       <c r="K6" s="155" t="s">
+        <v>677</v>
+      </c>
+      <c r="L6" s="155" t="s">
         <v>688</v>
-      </c>
-      <c r="L6" s="155" t="s">
-        <v>689</v>
       </c>
       <c r="M6" s="144" t="s">
         <v>666</v>
@@ -20565,8 +20561,8 @@
         <v>668</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.5">
-      <c r="A7" s="165" t="s">
+    <row r="7" spans="1:14" ht="15.75">
+      <c r="A7" s="166" t="s">
         <v>150</v>
       </c>
       <c r="B7" s="137" t="s">
@@ -20607,8 +20603,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="31">
-      <c r="A8" s="166"/>
+    <row r="8" spans="1:14" ht="31.5">
+      <c r="A8" s="167"/>
       <c r="B8" s="141" t="s">
         <v>631</v>
       </c>
@@ -20635,7 +20631,7 @@
         <v>0.19600000000000001</v>
       </c>
       <c r="K8" s="155" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L8" s="155" t="s">
         <v>677</v>
@@ -20647,8 +20643,8 @@
         <v>669</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.5">
-      <c r="A9" s="165" t="s">
+    <row r="9" spans="1:14" ht="15.75">
+      <c r="A9" s="166" t="s">
         <v>402</v>
       </c>
       <c r="B9" s="137" t="s">
@@ -20685,8 +20681,8 @@
         <v>169.3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="31">
-      <c r="A10" s="166"/>
+    <row r="10" spans="1:14" ht="31.5">
+      <c r="A10" s="167"/>
       <c r="B10" s="141" t="s">
         <v>631</v>
       </c>
@@ -20725,8 +20721,8 @@
         <v>670</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.5">
-      <c r="A11" s="165" t="s">
+    <row r="11" spans="1:14" ht="15.75">
+      <c r="A11" s="166" t="s">
         <v>403</v>
       </c>
       <c r="B11" s="137" t="s">
@@ -20761,8 +20757,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="31">
-      <c r="A12" s="166"/>
+    <row r="12" spans="1:14" ht="31.5">
+      <c r="A12" s="167"/>
       <c r="B12" s="141" t="s">
         <v>631</v>
       </c>
@@ -20801,8 +20797,8 @@
         <v>671</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.5">
-      <c r="A13" s="165" t="s">
+    <row r="13" spans="1:14" ht="15.75">
+      <c r="A13" s="166" t="s">
         <v>405</v>
       </c>
       <c r="B13" s="137" t="s">
@@ -20841,8 +20837,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="31">
-      <c r="A14" s="166"/>
+    <row r="14" spans="1:14" ht="31.5">
+      <c r="A14" s="167"/>
       <c r="B14" s="141" t="s">
         <v>631</v>
       </c>
@@ -20881,8 +20877,8 @@
         <v>672</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.5">
-      <c r="A15" s="165" t="s">
+    <row r="15" spans="1:14" ht="15.75">
+      <c r="A15" s="166" t="s">
         <v>418</v>
       </c>
       <c r="B15" s="137" t="s">
@@ -20923,8 +20919,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="31">
-      <c r="A16" s="166"/>
+    <row r="16" spans="1:14" ht="31.5">
+      <c r="A16" s="167"/>
       <c r="B16" s="141" t="s">
         <v>631</v>
       </c>
@@ -20945,26 +20941,26 @@
       </c>
       <c r="H16" s="145"/>
       <c r="I16" s="155" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="J16" s="144">
         <v>0.24</v>
       </c>
       <c r="K16" s="155" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="L16" s="155" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="M16" s="144" t="s">
         <v>666</v>
       </c>
       <c r="N16" s="146" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="15.5">
-      <c r="A17" s="165" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75">
+      <c r="A17" s="166" t="s">
         <v>466</v>
       </c>
       <c r="B17" s="137" t="s">
@@ -21003,8 +20999,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="31">
-      <c r="A18" s="166"/>
+    <row r="18" spans="1:14" ht="31.5">
+      <c r="A18" s="167"/>
       <c r="B18" s="141" t="s">
         <v>631</v>
       </c>
@@ -21025,13 +21021,13 @@
       </c>
       <c r="H18" s="145"/>
       <c r="I18" s="155" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="J18" s="144">
         <v>0.2</v>
       </c>
       <c r="K18" s="155" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L18" s="155" t="s">
         <v>681</v>
@@ -21043,8 +21039,8 @@
         <v>673</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.5">
-      <c r="A19" s="165" t="s">
+    <row r="19" spans="1:14" ht="15.75">
+      <c r="A19" s="166" t="s">
         <v>472</v>
       </c>
       <c r="B19" s="137" t="s">
@@ -21085,8 +21081,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="31">
-      <c r="A20" s="166"/>
+    <row r="20" spans="1:14" ht="31.5">
+      <c r="A20" s="167"/>
       <c r="B20" s="141" t="s">
         <v>631</v>
       </c>
@@ -21125,8 +21121,8 @@
         <v>674</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.5">
-      <c r="A21" s="165" t="s">
+    <row r="21" spans="1:14" ht="15.75">
+      <c r="A21" s="166" t="s">
         <v>486</v>
       </c>
       <c r="B21" s="137" t="s">
@@ -21167,8 +21163,8 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="31">
-      <c r="A22" s="166"/>
+    <row r="22" spans="1:14" ht="31.5">
+      <c r="A22" s="167"/>
       <c r="B22" s="141" t="s">
         <v>631</v>
       </c>
@@ -21198,7 +21194,7 @@
         <v>679</v>
       </c>
       <c r="L22" s="155" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="M22" s="144" t="s">
         <v>666</v>
@@ -21225,6 +21221,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A7:A8"/>
@@ -21233,12 +21235,6 @@
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
